--- a/resources/TestDataStage.xlsx
+++ b/resources/TestDataStage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinh Le\eclipse-workspace\SaucedemoProject\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4405B35-169A-47A9-8681-D3B9E5D6023E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145E9426-CEAC-4F24-900B-405AB707FB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -419,13 +419,13 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.85546875"/>
-    <col min="2" max="2" width="21.7109375"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
     <col min="3" max="1025" width="11.28515625"/>
   </cols>
   <sheetData>
